--- a/instagram_test.xlsx
+++ b/instagram_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barrio\Desktop\Desarrollo\Proyectos\instagram_scrapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Barrio\Desktop\Desarrollo\Proyectos\instagram_scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F851E-C362-4F7A-85DB-8CC2B32A676F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFF1B68-5DD5-49A6-87FB-9447283B79C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0644A942-00E5-4874-A21B-3AB26CD65544}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>#historiameme</t>
   </si>
@@ -57,23 +57,86 @@
     <t>Link</t>
   </si>
   <si>
-    <t>_memes_historia</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
     <t>Historia</t>
   </si>
   <si>
-    <t>https://www.instagram.com/_memes_historia/</t>
+    <t>memehistoria_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memeshistoria_/</t>
+  </si>
+  <si>
+    <t>memes_con_historia_z</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memes_con_historia_z/</t>
+  </si>
+  <si>
+    <t>memes_historicos2020</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memes_historicos2020/</t>
+  </si>
+  <si>
+    <t>memes_memardium</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/memes_memardium/</t>
+  </si>
+  <si>
+    <t>omundodahistoria</t>
+  </si>
+  <si>
+    <t>Divulgación</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/omundodahistoria/</t>
+  </si>
+  <si>
+    <t>pablobordaok_</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pablobordaok_/</t>
+  </si>
+  <si>
+    <t>pibeguiso_</t>
+  </si>
+  <si>
+    <t>Politico</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/pibeguiso_/</t>
+  </si>
+  <si>
+    <t>professor.bartho</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/professor.bartho/</t>
+  </si>
+  <si>
+    <t>quepeyeparce</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/quepeyeparce/</t>
+  </si>
+  <si>
+    <t>royaltvice</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/royaltvice/</t>
+  </si>
+  <si>
+    <t>Historia (PUBLICACIÓN OCULTA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +156,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,12 +256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -523,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1AE70-FAE6-44F1-A4DC-634D8084CD80}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +583,7 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,75 +611,191 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5">
+        <v>9304</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2397</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="G3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2555</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1278</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="14">
-        <v>1234</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>65609</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>12653</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1174</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>4570</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10">
+        <v>2605</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -819,9 +985,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{71A57C96-CE94-4F3D-A0DF-9F6C797A5A7D}"/>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{504FAF89-EC9F-46BC-8E4F-5F427BF50669}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{D219B2D7-AEB9-46C6-8C87-F9DDAB983539}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{4BF85D3F-B37D-469B-88D3-147CE5964EBA}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{524EDB41-D92C-497F-B6A0-FD39A7F9E897}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{02198A67-6869-41DF-A1B5-751487262909}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{B6042D05-AED8-4EC6-B75D-C100BB759147}"/>
+    <hyperlink ref="G9" r:id="rId7" xr:uid="{48D404BB-8F6B-4690-9FA7-FB37016398AC}"/>
+    <hyperlink ref="G10" r:id="rId8" xr:uid="{2689F1FB-B81A-4CEF-A835-6D02166BD298}"/>
+    <hyperlink ref="G11" r:id="rId9" xr:uid="{022072E4-B63F-47B6-AE93-10A672EDF181}"/>
+    <hyperlink ref="G8" r:id="rId10" xr:uid="{6B32A787-766D-4A03-9C9F-13B9683309B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId11"/>
 </worksheet>
 </file>